--- a/Challange/LiveSession4/Challange_LiveSession4.xlsx
+++ b/Challange/LiveSession4/Challange_LiveSession4.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\AlterraAcademy\QE_Dimas-Renaldy-Sriwirawan\Challange\LiveSession4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2BC03-AEB7-490E-A7C6-DB51FFCD13FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -79,9 +88,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>https://github.com/rens02/QE_Dimas-Renaldy-Sriwirawan/tree/main/Screenshoot%20Challange</t>
-  </si>
-  <si>
     <t>Test_02</t>
   </si>
   <si>
@@ -149,27 +155,34 @@
   </si>
   <si>
     <t>email yang belum terdaftar</t>
+  </si>
+  <si>
+    <t>https://github.com/rens02/QE_Dimas-Renaldy-Sriwirawan/tree/main/Challange/LiveSession4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,48 +190,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -408,30 +430,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="31.88"/>
-    <col customWidth="1" min="3" max="3" width="43.0"/>
-    <col customWidth="1" min="4" max="4" width="35.13"/>
-    <col customWidth="1" min="6" max="6" width="69.13"/>
-    <col customWidth="1" min="7" max="7" width="44.5"/>
-    <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="9" width="43.0"/>
-    <col customWidth="1" min="13" max="13" width="37.63"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,218 +492,378 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L2:M16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -693,24 +880,45 @@
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H8:H10"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L2:M16"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2"/>
+    <hyperlink ref="L2:M16" r:id="rId1" display="https://github.com/rens02/QE_Dimas-Renaldy-Sriwirawan/tree/main/Challange/LiveSession4" xr:uid="{13A90D37-9441-49F2-8E50-7045C8B65007}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>